--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000478</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>18.33</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>000478</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>47.95</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005633</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信中证500指数增强C</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>005633</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>建信中证500指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004475</t>
+          <t>001302</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞富利灵活配置混合</t>
+          <t>前海开源金银珠宝主题精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>69.19</t>
+          <t>8.04</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.22</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004496</t>
+          <t>002207</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合A</t>
+          <t>前海开源金银珠宝主题精选混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.42</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2702</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -706,25 +786,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004497</t>
+          <t>004496</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>前海开源多元策略灵活配置混合C</t>
+          <t>前海开源多元策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.42</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.13</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -734,26 +824,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001302</t>
+          <t>004475</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
+          <t>华泰柏瑞富利灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>69.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -762,26 +862,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002207</t>
+          <t>004497</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
+          <t>前海开源多元策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.83</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -800,15 +910,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>70.77</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>7.80</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5171</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4749</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004496</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004497</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源多元策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1296,4 +1297,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4653</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1552,7 +1553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,17 +1564,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1583,14 +1604,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.19</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1599,14 +1642,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.69</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3573</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1615,14 +1680,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.15</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1631,13 +1718,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005541</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1267</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005542</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源盛鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1837,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,17 +1849,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1868,14 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.35</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6699</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1884,14 +1927,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.19</v>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4492</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1900,14 +1965,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.69</v>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -1916,14 +2003,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.15</v>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1932,13 +2041,357 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001247</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1219</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002091</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞鼎利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2274,7 +2275,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2285,17 +2286,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2305,14 +2326,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.53</v>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.51</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0209</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2321,14 +2364,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.35</v>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7990</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2337,14 +2402,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.19</v>
       </c>
     </row>
     <row r="5">
@@ -2353,14 +2440,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>8</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.69</v>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4116</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -2369,14 +2478,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.15</v>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -2385,13 +2516,411 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.70</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1714</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1610</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>3.47</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>2.53</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D4" t="n">
-        <v>1.35</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.69</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>1.15</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -600,6 +617,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4625</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010963</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6425</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>67.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4229</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5094</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015455</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信澳周期动力混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5072</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3024</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1656</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>62.12</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>67.70</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161715</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商中证大宗商品股票指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001415</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002046</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚新锐回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003235</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001402</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003234</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚至利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004157</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002030</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信诚新选回报灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23.94</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011987</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004158</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚至诚灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>24.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011988</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管智选核心回报6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>33.21</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1111,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1547,7 +2796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1831,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2077,7 +3326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2437,7 +3686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2721,7 +3970,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
+++ b/数据整理/stocks/A股/深证主板/002155-湖南黄金.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>8.140000000000001</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D3" t="n">
-        <v>3.47</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.53</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D5" t="n">
-        <v>1.35</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.19</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>2.69</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>1.15</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>6</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.5</v>
       </c>
     </row>
@@ -616,7 +633,1479 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6680</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5466</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6256</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014597</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞富利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1795</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003175</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.17</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9054</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5326</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001302</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源金银珠宝主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>671030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2239</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>65.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2191</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1745</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005660</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011371</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>015443</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>015043</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015110</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014786</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005661</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实资源精选股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008135</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宸未来价值先锋混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>015044</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>西部利得时代动力混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011372</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商远见价值混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>015111</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>惠升领先优选混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>69.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>015444</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>惠升惠享启睿混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>64.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014787</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>惠升品质优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1848,7 +3337,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2360,7 +3849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2796,7 +4285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3080,7 +4569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3326,7 +4815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3686,7 +5175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3968,212 +5457,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001302</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>18.33</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.6680</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000478</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>47.95</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5466</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002207</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>前海开源金银珠宝主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.29</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2785</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005633</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.69</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>